--- a/media/system_files/quotation_template.xlsx
+++ b/media/system_files/quotation_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauou\OneDrive\桌面\艾力克電機\ERP\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61F49C-887E-44C5-94F1-2B8A69E6F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMP1110903" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">AMP1110903!$A$1:$J$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">AMP1110903!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">   艾力克電機股份有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -231,14 +232,6 @@
       </rPr>
       <t>Remarks</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>總 金 額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>（不含5%營業稅)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -533,23 +526,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SUM_CHINESS</t>
+    <t>稅額5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合計未稅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_five</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="[DBNum2][$-404]&quot;總 計:新台幣 &quot;General&quot;元整&quot;"/>
     <numFmt numFmtId="179" formatCode="&quot;NT$&quot;#,##0_);[Red]\(&quot;NT$&quot;#,##0\)"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,12 +700,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -729,6 +733,22 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -744,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -882,112 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1027,6 +941,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,7 +1010,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,10 +1120,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1166,7 +1132,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1175,8 +1141,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,6 +1150,24 @@
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1272,22 +1256,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,53 +1280,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1359,14 +1307,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet10_101年報價單" xfId="5"/>
-    <cellStyle name="一般_大連化工2號變電站" xfId="3"/>
-    <cellStyle name="一般_大連化工2號變電站_101年中宇報價單-CEC 2" xfId="2"/>
-    <cellStyle name="一般_大連化工2號變電站_101年報價單" xfId="6"/>
-    <cellStyle name="一般_材料工資計算表MPD84261(蔡明奮)" xfId="4"/>
+    <cellStyle name="一般_Sheet10_101年報價單" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_大連化工2號變電站" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_大連化工2號變電站_101年中宇報價單-CEC 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般_大連化工2號變電站_101年報價單" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般_材料工資計算表MPD84261(蔡明奮)" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20285,23 +20260,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:I29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
@@ -20941,57 +20916,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="16.2">
       <c r="G2" s="2"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="49"/>
+      <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="16.2">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="19.8">
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:11">
@@ -21001,43 +20976,43 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>48</v>
+      <c r="B7" s="60" t="s">
+        <v>46</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>50</v>
+      <c r="G7" s="61" t="s">
+        <v>48</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>52</v>
+      <c r="B8" s="60" t="s">
+        <v>50</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>51</v>
+      <c r="G8" s="62" t="s">
+        <v>49</v>
       </c>
-      <c r="H8" s="56"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
@@ -21047,83 +21022,83 @@
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>53</v>
+      <c r="B9" s="63" t="s">
+        <v>51</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>57</v>
+      <c r="G9" s="64" t="s">
+        <v>55</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>59</v>
+      <c r="B10" s="65" t="s">
+        <v>57</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>58</v>
+      <c r="G10" s="64" t="s">
+        <v>56</v>
       </c>
-      <c r="H10" s="58"/>
+      <c r="H10" s="64"/>
       <c r="I10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>60</v>
+      <c r="B11" s="66" t="s">
+        <v>58</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="16.2">
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="43.8">
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
@@ -21141,14 +21116,14 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="26.4" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -21158,10 +21133,10 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
@@ -21171,10 +21146,10 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
@@ -21184,10 +21159,10 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="19"/>
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
@@ -21197,10 +21172,10 @@
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="70"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="19"/>
       <c r="G18" s="16"/>
       <c r="H18" s="21"/>
@@ -21210,10 +21185,10 @@
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="70"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="19"/>
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
@@ -21223,10 +21198,10 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
@@ -21235,25 +21210,22 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="70"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="19"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="21">
-        <f>SUM(I14:I20)*0.05</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="70"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="19"/>
       <c r="G22" s="16"/>
       <c r="H22" s="21"/>
@@ -21262,10 +21234,10 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="19"/>
       <c r="G23" s="26"/>
       <c r="H23" s="22"/>
@@ -21274,10 +21246,10 @@
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="19"/>
       <c r="G24" s="26"/>
       <c r="H24" s="22"/>
@@ -21286,10 +21258,10 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="19"/>
       <c r="G25" s="26"/>
       <c r="H25" s="22"/>
@@ -21298,10 +21270,10 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="27"/>
       <c r="G26" s="26"/>
       <c r="H26" s="28"/>
@@ -21310,51 +21282,55 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A27" s="30"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88" t="s">
+    <row r="28" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A28" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="94" t="s">
-        <v>27</v>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="103" t="s">
+        <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="18" thickBot="1">
-      <c r="A29" s="96" t="s">
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="95"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A29" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999">
       <c r="A30" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -21366,9 +21342,9 @@
       <c r="I30" s="37"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="16.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -21380,9 +21356,9 @@
       <c r="I31" s="40"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="16.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -21394,9 +21370,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="16.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -21408,109 +21384,109 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="16.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="98" t="s">
+      <c r="F34" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="96"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.2">
+      <c r="A35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101" t="s">
+      <c r="B35" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="102"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="F35:H40"/>
     <mergeCell ref="I35:J40"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
@@ -21523,6 +21499,19 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B7:E7"/>
@@ -21531,24 +21520,13 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVR983051 JF11 TB11 ACX11 AMT11 AWP11 BGL11 BQH11 CAD11 CJZ11 CTV11 DDR11 DNN11 DXJ11 EHF11 ERB11 FAX11 FKT11 FUP11 GEL11 GOH11 GYD11 HHZ11 HRV11 IBR11 ILN11 IVJ11 JFF11 JPB11 JYX11 KIT11 KSP11 LCL11 LMH11 LWD11 MFZ11 MPV11 MZR11 NJN11 NTJ11 ODF11 ONB11 OWX11 PGT11 PQP11 QAL11 QKH11 QUD11 RDZ11 RNV11 RXR11 SHN11 SRJ11 TBF11 TLB11 TUX11 UET11 UOP11 UYL11 VIH11 VSD11 WBZ11 WLV11 WVR11 J65547 JF65547 TB65547 ACX65547 AMT65547 AWP65547 BGL65547 BQH65547 CAD65547 CJZ65547 CTV65547 DDR65547 DNN65547 DXJ65547 EHF65547 ERB65547 FAX65547 FKT65547 FUP65547 GEL65547 GOH65547 GYD65547 HHZ65547 HRV65547 IBR65547 ILN65547 IVJ65547 JFF65547 JPB65547 JYX65547 KIT65547 KSP65547 LCL65547 LMH65547 LWD65547 MFZ65547 MPV65547 MZR65547 NJN65547 NTJ65547 ODF65547 ONB65547 OWX65547 PGT65547 PQP65547 QAL65547 QKH65547 QUD65547 RDZ65547 RNV65547 RXR65547 SHN65547 SRJ65547 TBF65547 TLB65547 TUX65547 UET65547 UOP65547 UYL65547 VIH65547 VSD65547 WBZ65547 WLV65547 WVR65547 J131083 JF131083 TB131083 ACX131083 AMT131083 AWP131083 BGL131083 BQH131083 CAD131083 CJZ131083 CTV131083 DDR131083 DNN131083 DXJ131083 EHF131083 ERB131083 FAX131083 FKT131083 FUP131083 GEL131083 GOH131083 GYD131083 HHZ131083 HRV131083 IBR131083 ILN131083 IVJ131083 JFF131083 JPB131083 JYX131083 KIT131083 KSP131083 LCL131083 LMH131083 LWD131083 MFZ131083 MPV131083 MZR131083 NJN131083 NTJ131083 ODF131083 ONB131083 OWX131083 PGT131083 PQP131083 QAL131083 QKH131083 QUD131083 RDZ131083 RNV131083 RXR131083 SHN131083 SRJ131083 TBF131083 TLB131083 TUX131083 UET131083 UOP131083 UYL131083 VIH131083 VSD131083 WBZ131083 WLV131083 WVR131083 J196619 JF196619 TB196619 ACX196619 AMT196619 AWP196619 BGL196619 BQH196619 CAD196619 CJZ196619 CTV196619 DDR196619 DNN196619 DXJ196619 EHF196619 ERB196619 FAX196619 FKT196619 FUP196619 GEL196619 GOH196619 GYD196619 HHZ196619 HRV196619 IBR196619 ILN196619 IVJ196619 JFF196619 JPB196619 JYX196619 KIT196619 KSP196619 LCL196619 LMH196619 LWD196619 MFZ196619 MPV196619 MZR196619 NJN196619 NTJ196619 ODF196619 ONB196619 OWX196619 PGT196619 PQP196619 QAL196619 QKH196619 QUD196619 RDZ196619 RNV196619 RXR196619 SHN196619 SRJ196619 TBF196619 TLB196619 TUX196619 UET196619 UOP196619 UYL196619 VIH196619 VSD196619 WBZ196619 WLV196619 WVR196619 J262155 JF262155 TB262155 ACX262155 AMT262155 AWP262155 BGL262155 BQH262155 CAD262155 CJZ262155 CTV262155 DDR262155 DNN262155 DXJ262155 EHF262155 ERB262155 FAX262155 FKT262155 FUP262155 GEL262155 GOH262155 GYD262155 HHZ262155 HRV262155 IBR262155 ILN262155 IVJ262155 JFF262155 JPB262155 JYX262155 KIT262155 KSP262155 LCL262155 LMH262155 LWD262155 MFZ262155 MPV262155 MZR262155 NJN262155 NTJ262155 ODF262155 ONB262155 OWX262155 PGT262155 PQP262155 QAL262155 QKH262155 QUD262155 RDZ262155 RNV262155 RXR262155 SHN262155 SRJ262155 TBF262155 TLB262155 TUX262155 UET262155 UOP262155 UYL262155 VIH262155 VSD262155 WBZ262155 WLV262155 WVR262155 J327691 JF327691 TB327691 ACX327691 AMT327691 AWP327691 BGL327691 BQH327691 CAD327691 CJZ327691 CTV327691 DDR327691 DNN327691 DXJ327691 EHF327691 ERB327691 FAX327691 FKT327691 FUP327691 GEL327691 GOH327691 GYD327691 HHZ327691 HRV327691 IBR327691 ILN327691 IVJ327691 JFF327691 JPB327691 JYX327691 KIT327691 KSP327691 LCL327691 LMH327691 LWD327691 MFZ327691 MPV327691 MZR327691 NJN327691 NTJ327691 ODF327691 ONB327691 OWX327691 PGT327691 PQP327691 QAL327691 QKH327691 QUD327691 RDZ327691 RNV327691 RXR327691 SHN327691 SRJ327691 TBF327691 TLB327691 TUX327691 UET327691 UOP327691 UYL327691 VIH327691 VSD327691 WBZ327691 WLV327691 WVR327691 J393227 JF393227 TB393227 ACX393227 AMT393227 AWP393227 BGL393227 BQH393227 CAD393227 CJZ393227 CTV393227 DDR393227 DNN393227 DXJ393227 EHF393227 ERB393227 FAX393227 FKT393227 FUP393227 GEL393227 GOH393227 GYD393227 HHZ393227 HRV393227 IBR393227 ILN393227 IVJ393227 JFF393227 JPB393227 JYX393227 KIT393227 KSP393227 LCL393227 LMH393227 LWD393227 MFZ393227 MPV393227 MZR393227 NJN393227 NTJ393227 ODF393227 ONB393227 OWX393227 PGT393227 PQP393227 QAL393227 QKH393227 QUD393227 RDZ393227 RNV393227 RXR393227 SHN393227 SRJ393227 TBF393227 TLB393227 TUX393227 UET393227 UOP393227 UYL393227 VIH393227 VSD393227 WBZ393227 WLV393227 WVR393227 J458763 JF458763 TB458763 ACX458763 AMT458763 AWP458763 BGL458763 BQH458763 CAD458763 CJZ458763 CTV458763 DDR458763 DNN458763 DXJ458763 EHF458763 ERB458763 FAX458763 FKT458763 FUP458763 GEL458763 GOH458763 GYD458763 HHZ458763 HRV458763 IBR458763 ILN458763 IVJ458763 JFF458763 JPB458763 JYX458763 KIT458763 KSP458763 LCL458763 LMH458763 LWD458763 MFZ458763 MPV458763 MZR458763 NJN458763 NTJ458763 ODF458763 ONB458763 OWX458763 PGT458763 PQP458763 QAL458763 QKH458763 QUD458763 RDZ458763 RNV458763 RXR458763 SHN458763 SRJ458763 TBF458763 TLB458763 TUX458763 UET458763 UOP458763 UYL458763 VIH458763 VSD458763 WBZ458763 WLV458763 WVR458763 J524299 JF524299 TB524299 ACX524299 AMT524299 AWP524299 BGL524299 BQH524299 CAD524299 CJZ524299 CTV524299 DDR524299 DNN524299 DXJ524299 EHF524299 ERB524299 FAX524299 FKT524299 FUP524299 GEL524299 GOH524299 GYD524299 HHZ524299 HRV524299 IBR524299 ILN524299 IVJ524299 JFF524299 JPB524299 JYX524299 KIT524299 KSP524299 LCL524299 LMH524299 LWD524299 MFZ524299 MPV524299 MZR524299 NJN524299 NTJ524299 ODF524299 ONB524299 OWX524299 PGT524299 PQP524299 QAL524299 QKH524299 QUD524299 RDZ524299 RNV524299 RXR524299 SHN524299 SRJ524299 TBF524299 TLB524299 TUX524299 UET524299 UOP524299 UYL524299 VIH524299 VSD524299 WBZ524299 WLV524299 WVR524299 J589835 JF589835 TB589835 ACX589835 AMT589835 AWP589835 BGL589835 BQH589835 CAD589835 CJZ589835 CTV589835 DDR589835 DNN589835 DXJ589835 EHF589835 ERB589835 FAX589835 FKT589835 FUP589835 GEL589835 GOH589835 GYD589835 HHZ589835 HRV589835 IBR589835 ILN589835 IVJ589835 JFF589835 JPB589835 JYX589835 KIT589835 KSP589835 LCL589835 LMH589835 LWD589835 MFZ589835 MPV589835 MZR589835 NJN589835 NTJ589835 ODF589835 ONB589835 OWX589835 PGT589835 PQP589835 QAL589835 QKH589835 QUD589835 RDZ589835 RNV589835 RXR589835 SHN589835 SRJ589835 TBF589835 TLB589835 TUX589835 UET589835 UOP589835 UYL589835 VIH589835 VSD589835 WBZ589835 WLV589835 WVR589835 J655371 JF655371 TB655371 ACX655371 AMT655371 AWP655371 BGL655371 BQH655371 CAD655371 CJZ655371 CTV655371 DDR655371 DNN655371 DXJ655371 EHF655371 ERB655371 FAX655371 FKT655371 FUP655371 GEL655371 GOH655371 GYD655371 HHZ655371 HRV655371 IBR655371 ILN655371 IVJ655371 JFF655371 JPB655371 JYX655371 KIT655371 KSP655371 LCL655371 LMH655371 LWD655371 MFZ655371 MPV655371 MZR655371 NJN655371 NTJ655371 ODF655371 ONB655371 OWX655371 PGT655371 PQP655371 QAL655371 QKH655371 QUD655371 RDZ655371 RNV655371 RXR655371 SHN655371 SRJ655371 TBF655371 TLB655371 TUX655371 UET655371 UOP655371 UYL655371 VIH655371 VSD655371 WBZ655371 WLV655371 WVR655371 J720907 JF720907 TB720907 ACX720907 AMT720907 AWP720907 BGL720907 BQH720907 CAD720907 CJZ720907 CTV720907 DDR720907 DNN720907 DXJ720907 EHF720907 ERB720907 FAX720907 FKT720907 FUP720907 GEL720907 GOH720907 GYD720907 HHZ720907 HRV720907 IBR720907 ILN720907 IVJ720907 JFF720907 JPB720907 JYX720907 KIT720907 KSP720907 LCL720907 LMH720907 LWD720907 MFZ720907 MPV720907 MZR720907 NJN720907 NTJ720907 ODF720907 ONB720907 OWX720907 PGT720907 PQP720907 QAL720907 QKH720907 QUD720907 RDZ720907 RNV720907 RXR720907 SHN720907 SRJ720907 TBF720907 TLB720907 TUX720907 UET720907 UOP720907 UYL720907 VIH720907 VSD720907 WBZ720907 WLV720907 WVR720907 J786443 JF786443 TB786443 ACX786443 AMT786443 AWP786443 BGL786443 BQH786443 CAD786443 CJZ786443 CTV786443 DDR786443 DNN786443 DXJ786443 EHF786443 ERB786443 FAX786443 FKT786443 FUP786443 GEL786443 GOH786443 GYD786443 HHZ786443 HRV786443 IBR786443 ILN786443 IVJ786443 JFF786443 JPB786443 JYX786443 KIT786443 KSP786443 LCL786443 LMH786443 LWD786443 MFZ786443 MPV786443 MZR786443 NJN786443 NTJ786443 ODF786443 ONB786443 OWX786443 PGT786443 PQP786443 QAL786443 QKH786443 QUD786443 RDZ786443 RNV786443 RXR786443 SHN786443 SRJ786443 TBF786443 TLB786443 TUX786443 UET786443 UOP786443 UYL786443 VIH786443 VSD786443 WBZ786443 WLV786443 WVR786443 J851979 JF851979 TB851979 ACX851979 AMT851979 AWP851979 BGL851979 BQH851979 CAD851979 CJZ851979 CTV851979 DDR851979 DNN851979 DXJ851979 EHF851979 ERB851979 FAX851979 FKT851979 FUP851979 GEL851979 GOH851979 GYD851979 HHZ851979 HRV851979 IBR851979 ILN851979 IVJ851979 JFF851979 JPB851979 JYX851979 KIT851979 KSP851979 LCL851979 LMH851979 LWD851979 MFZ851979 MPV851979 MZR851979 NJN851979 NTJ851979 ODF851979 ONB851979 OWX851979 PGT851979 PQP851979 QAL851979 QKH851979 QUD851979 RDZ851979 RNV851979 RXR851979 SHN851979 SRJ851979 TBF851979 TLB851979 TUX851979 UET851979 UOP851979 UYL851979 VIH851979 VSD851979 WBZ851979 WLV851979 WVR851979 J917515 JF917515 TB917515 ACX917515 AMT917515 AWP917515 BGL917515 BQH917515 CAD917515 CJZ917515 CTV917515 DDR917515 DNN917515 DXJ917515 EHF917515 ERB917515 FAX917515 FKT917515 FUP917515 GEL917515 GOH917515 GYD917515 HHZ917515 HRV917515 IBR917515 ILN917515 IVJ917515 JFF917515 JPB917515 JYX917515 KIT917515 KSP917515 LCL917515 LMH917515 LWD917515 MFZ917515 MPV917515 MZR917515 NJN917515 NTJ917515 ODF917515 ONB917515 OWX917515 PGT917515 PQP917515 QAL917515 QKH917515 QUD917515 RDZ917515 RNV917515 RXR917515 SHN917515 SRJ917515 TBF917515 TLB917515 TUX917515 UET917515 UOP917515 UYL917515 VIH917515 VSD917515 WBZ917515 WLV917515 WVR917515 J983051 JF983051 TB983051 ACX983051 AMT983051 AWP983051 BGL983051 BQH983051 CAD983051 CJZ983051 CTV983051 DDR983051 DNN983051 DXJ983051 EHF983051 ERB983051 FAX983051 FKT983051 FUP983051 GEL983051 GOH983051 GYD983051 HHZ983051 HRV983051 IBR983051 ILN983051 IVJ983051 JFF983051 JPB983051 JYX983051 KIT983051 KSP983051 LCL983051 LMH983051 LWD983051 MFZ983051 MPV983051 MZR983051 NJN983051 NTJ983051 ODF983051 ONB983051 OWX983051 PGT983051 PQP983051 QAL983051 QKH983051 QUD983051 RDZ983051 RNV983051 RXR983051 SHN983051 SRJ983051 TBF983051 TLB983051 TUX983051 UET983051 UOP983051 UYL983051 VIH983051 VSD983051 WBZ983051 WLV983051">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVR983051 JF11 TB11 ACX11 AMT11 AWP11 BGL11 BQH11 CAD11 CJZ11 CTV11 DDR11 DNN11 DXJ11 EHF11 ERB11 FAX11 FKT11 FUP11 GEL11 GOH11 GYD11 HHZ11 HRV11 IBR11 ILN11 IVJ11 JFF11 JPB11 JYX11 KIT11 KSP11 LCL11 LMH11 LWD11 MFZ11 MPV11 MZR11 NJN11 NTJ11 ODF11 ONB11 OWX11 PGT11 PQP11 QAL11 QKH11 QUD11 RDZ11 RNV11 RXR11 SHN11 SRJ11 TBF11 TLB11 TUX11 UET11 UOP11 UYL11 VIH11 VSD11 WBZ11 WLV11 WVR11 J65547 JF65547 TB65547 ACX65547 AMT65547 AWP65547 BGL65547 BQH65547 CAD65547 CJZ65547 CTV65547 DDR65547 DNN65547 DXJ65547 EHF65547 ERB65547 FAX65547 FKT65547 FUP65547 GEL65547 GOH65547 GYD65547 HHZ65547 HRV65547 IBR65547 ILN65547 IVJ65547 JFF65547 JPB65547 JYX65547 KIT65547 KSP65547 LCL65547 LMH65547 LWD65547 MFZ65547 MPV65547 MZR65547 NJN65547 NTJ65547 ODF65547 ONB65547 OWX65547 PGT65547 PQP65547 QAL65547 QKH65547 QUD65547 RDZ65547 RNV65547 RXR65547 SHN65547 SRJ65547 TBF65547 TLB65547 TUX65547 UET65547 UOP65547 UYL65547 VIH65547 VSD65547 WBZ65547 WLV65547 WVR65547 J131083 JF131083 TB131083 ACX131083 AMT131083 AWP131083 BGL131083 BQH131083 CAD131083 CJZ131083 CTV131083 DDR131083 DNN131083 DXJ131083 EHF131083 ERB131083 FAX131083 FKT131083 FUP131083 GEL131083 GOH131083 GYD131083 HHZ131083 HRV131083 IBR131083 ILN131083 IVJ131083 JFF131083 JPB131083 JYX131083 KIT131083 KSP131083 LCL131083 LMH131083 LWD131083 MFZ131083 MPV131083 MZR131083 NJN131083 NTJ131083 ODF131083 ONB131083 OWX131083 PGT131083 PQP131083 QAL131083 QKH131083 QUD131083 RDZ131083 RNV131083 RXR131083 SHN131083 SRJ131083 TBF131083 TLB131083 TUX131083 UET131083 UOP131083 UYL131083 VIH131083 VSD131083 WBZ131083 WLV131083 WVR131083 J196619 JF196619 TB196619 ACX196619 AMT196619 AWP196619 BGL196619 BQH196619 CAD196619 CJZ196619 CTV196619 DDR196619 DNN196619 DXJ196619 EHF196619 ERB196619 FAX196619 FKT196619 FUP196619 GEL196619 GOH196619 GYD196619 HHZ196619 HRV196619 IBR196619 ILN196619 IVJ196619 JFF196619 JPB196619 JYX196619 KIT196619 KSP196619 LCL196619 LMH196619 LWD196619 MFZ196619 MPV196619 MZR196619 NJN196619 NTJ196619 ODF196619 ONB196619 OWX196619 PGT196619 PQP196619 QAL196619 QKH196619 QUD196619 RDZ196619 RNV196619 RXR196619 SHN196619 SRJ196619 TBF196619 TLB196619 TUX196619 UET196619 UOP196619 UYL196619 VIH196619 VSD196619 WBZ196619 WLV196619 WVR196619 J262155 JF262155 TB262155 ACX262155 AMT262155 AWP262155 BGL262155 BQH262155 CAD262155 CJZ262155 CTV262155 DDR262155 DNN262155 DXJ262155 EHF262155 ERB262155 FAX262155 FKT262155 FUP262155 GEL262155 GOH262155 GYD262155 HHZ262155 HRV262155 IBR262155 ILN262155 IVJ262155 JFF262155 JPB262155 JYX262155 KIT262155 KSP262155 LCL262155 LMH262155 LWD262155 MFZ262155 MPV262155 MZR262155 NJN262155 NTJ262155 ODF262155 ONB262155 OWX262155 PGT262155 PQP262155 QAL262155 QKH262155 QUD262155 RDZ262155 RNV262155 RXR262155 SHN262155 SRJ262155 TBF262155 TLB262155 TUX262155 UET262155 UOP262155 UYL262155 VIH262155 VSD262155 WBZ262155 WLV262155 WVR262155 J327691 JF327691 TB327691 ACX327691 AMT327691 AWP327691 BGL327691 BQH327691 CAD327691 CJZ327691 CTV327691 DDR327691 DNN327691 DXJ327691 EHF327691 ERB327691 FAX327691 FKT327691 FUP327691 GEL327691 GOH327691 GYD327691 HHZ327691 HRV327691 IBR327691 ILN327691 IVJ327691 JFF327691 JPB327691 JYX327691 KIT327691 KSP327691 LCL327691 LMH327691 LWD327691 MFZ327691 MPV327691 MZR327691 NJN327691 NTJ327691 ODF327691 ONB327691 OWX327691 PGT327691 PQP327691 QAL327691 QKH327691 QUD327691 RDZ327691 RNV327691 RXR327691 SHN327691 SRJ327691 TBF327691 TLB327691 TUX327691 UET327691 UOP327691 UYL327691 VIH327691 VSD327691 WBZ327691 WLV327691 WVR327691 J393227 JF393227 TB393227 ACX393227 AMT393227 AWP393227 BGL393227 BQH393227 CAD393227 CJZ393227 CTV393227 DDR393227 DNN393227 DXJ393227 EHF393227 ERB393227 FAX393227 FKT393227 FUP393227 GEL393227 GOH393227 GYD393227 HHZ393227 HRV393227 IBR393227 ILN393227 IVJ393227 JFF393227 JPB393227 JYX393227 KIT393227 KSP393227 LCL393227 LMH393227 LWD393227 MFZ393227 MPV393227 MZR393227 NJN393227 NTJ393227 ODF393227 ONB393227 OWX393227 PGT393227 PQP393227 QAL393227 QKH393227 QUD393227 RDZ393227 RNV393227 RXR393227 SHN393227 SRJ393227 TBF393227 TLB393227 TUX393227 UET393227 UOP393227 UYL393227 VIH393227 VSD393227 WBZ393227 WLV393227 WVR393227 J458763 JF458763 TB458763 ACX458763 AMT458763 AWP458763 BGL458763 BQH458763 CAD458763 CJZ458763 CTV458763 DDR458763 DNN458763 DXJ458763 EHF458763 ERB458763 FAX458763 FKT458763 FUP458763 GEL458763 GOH458763 GYD458763 HHZ458763 HRV458763 IBR458763 ILN458763 IVJ458763 JFF458763 JPB458763 JYX458763 KIT458763 KSP458763 LCL458763 LMH458763 LWD458763 MFZ458763 MPV458763 MZR458763 NJN458763 NTJ458763 ODF458763 ONB458763 OWX458763 PGT458763 PQP458763 QAL458763 QKH458763 QUD458763 RDZ458763 RNV458763 RXR458763 SHN458763 SRJ458763 TBF458763 TLB458763 TUX458763 UET458763 UOP458763 UYL458763 VIH458763 VSD458763 WBZ458763 WLV458763 WVR458763 J524299 JF524299 TB524299 ACX524299 AMT524299 AWP524299 BGL524299 BQH524299 CAD524299 CJZ524299 CTV524299 DDR524299 DNN524299 DXJ524299 EHF524299 ERB524299 FAX524299 FKT524299 FUP524299 GEL524299 GOH524299 GYD524299 HHZ524299 HRV524299 IBR524299 ILN524299 IVJ524299 JFF524299 JPB524299 JYX524299 KIT524299 KSP524299 LCL524299 LMH524299 LWD524299 MFZ524299 MPV524299 MZR524299 NJN524299 NTJ524299 ODF524299 ONB524299 OWX524299 PGT524299 PQP524299 QAL524299 QKH524299 QUD524299 RDZ524299 RNV524299 RXR524299 SHN524299 SRJ524299 TBF524299 TLB524299 TUX524299 UET524299 UOP524299 UYL524299 VIH524299 VSD524299 WBZ524299 WLV524299 WVR524299 J589835 JF589835 TB589835 ACX589835 AMT589835 AWP589835 BGL589835 BQH589835 CAD589835 CJZ589835 CTV589835 DDR589835 DNN589835 DXJ589835 EHF589835 ERB589835 FAX589835 FKT589835 FUP589835 GEL589835 GOH589835 GYD589835 HHZ589835 HRV589835 IBR589835 ILN589835 IVJ589835 JFF589835 JPB589835 JYX589835 KIT589835 KSP589835 LCL589835 LMH589835 LWD589835 MFZ589835 MPV589835 MZR589835 NJN589835 NTJ589835 ODF589835 ONB589835 OWX589835 PGT589835 PQP589835 QAL589835 QKH589835 QUD589835 RDZ589835 RNV589835 RXR589835 SHN589835 SRJ589835 TBF589835 TLB589835 TUX589835 UET589835 UOP589835 UYL589835 VIH589835 VSD589835 WBZ589835 WLV589835 WVR589835 J655371 JF655371 TB655371 ACX655371 AMT655371 AWP655371 BGL655371 BQH655371 CAD655371 CJZ655371 CTV655371 DDR655371 DNN655371 DXJ655371 EHF655371 ERB655371 FAX655371 FKT655371 FUP655371 GEL655371 GOH655371 GYD655371 HHZ655371 HRV655371 IBR655371 ILN655371 IVJ655371 JFF655371 JPB655371 JYX655371 KIT655371 KSP655371 LCL655371 LMH655371 LWD655371 MFZ655371 MPV655371 MZR655371 NJN655371 NTJ655371 ODF655371 ONB655371 OWX655371 PGT655371 PQP655371 QAL655371 QKH655371 QUD655371 RDZ655371 RNV655371 RXR655371 SHN655371 SRJ655371 TBF655371 TLB655371 TUX655371 UET655371 UOP655371 UYL655371 VIH655371 VSD655371 WBZ655371 WLV655371 WVR655371 J720907 JF720907 TB720907 ACX720907 AMT720907 AWP720907 BGL720907 BQH720907 CAD720907 CJZ720907 CTV720907 DDR720907 DNN720907 DXJ720907 EHF720907 ERB720907 FAX720907 FKT720907 FUP720907 GEL720907 GOH720907 GYD720907 HHZ720907 HRV720907 IBR720907 ILN720907 IVJ720907 JFF720907 JPB720907 JYX720907 KIT720907 KSP720907 LCL720907 LMH720907 LWD720907 MFZ720907 MPV720907 MZR720907 NJN720907 NTJ720907 ODF720907 ONB720907 OWX720907 PGT720907 PQP720907 QAL720907 QKH720907 QUD720907 RDZ720907 RNV720907 RXR720907 SHN720907 SRJ720907 TBF720907 TLB720907 TUX720907 UET720907 UOP720907 UYL720907 VIH720907 VSD720907 WBZ720907 WLV720907 WVR720907 J786443 JF786443 TB786443 ACX786443 AMT786443 AWP786443 BGL786443 BQH786443 CAD786443 CJZ786443 CTV786443 DDR786443 DNN786443 DXJ786443 EHF786443 ERB786443 FAX786443 FKT786443 FUP786443 GEL786443 GOH786443 GYD786443 HHZ786443 HRV786443 IBR786443 ILN786443 IVJ786443 JFF786443 JPB786443 JYX786443 KIT786443 KSP786443 LCL786443 LMH786443 LWD786443 MFZ786443 MPV786443 MZR786443 NJN786443 NTJ786443 ODF786443 ONB786443 OWX786443 PGT786443 PQP786443 QAL786443 QKH786443 QUD786443 RDZ786443 RNV786443 RXR786443 SHN786443 SRJ786443 TBF786443 TLB786443 TUX786443 UET786443 UOP786443 UYL786443 VIH786443 VSD786443 WBZ786443 WLV786443 WVR786443 J851979 JF851979 TB851979 ACX851979 AMT851979 AWP851979 BGL851979 BQH851979 CAD851979 CJZ851979 CTV851979 DDR851979 DNN851979 DXJ851979 EHF851979 ERB851979 FAX851979 FKT851979 FUP851979 GEL851979 GOH851979 GYD851979 HHZ851979 HRV851979 IBR851979 ILN851979 IVJ851979 JFF851979 JPB851979 JYX851979 KIT851979 KSP851979 LCL851979 LMH851979 LWD851979 MFZ851979 MPV851979 MZR851979 NJN851979 NTJ851979 ODF851979 ONB851979 OWX851979 PGT851979 PQP851979 QAL851979 QKH851979 QUD851979 RDZ851979 RNV851979 RXR851979 SHN851979 SRJ851979 TBF851979 TLB851979 TUX851979 UET851979 UOP851979 UYL851979 VIH851979 VSD851979 WBZ851979 WLV851979 WVR851979 J917515 JF917515 TB917515 ACX917515 AMT917515 AWP917515 BGL917515 BQH917515 CAD917515 CJZ917515 CTV917515 DDR917515 DNN917515 DXJ917515 EHF917515 ERB917515 FAX917515 FKT917515 FUP917515 GEL917515 GOH917515 GYD917515 HHZ917515 HRV917515 IBR917515 ILN917515 IVJ917515 JFF917515 JPB917515 JYX917515 KIT917515 KSP917515 LCL917515 LMH917515 LWD917515 MFZ917515 MPV917515 MZR917515 NJN917515 NTJ917515 ODF917515 ONB917515 OWX917515 PGT917515 PQP917515 QAL917515 QKH917515 QUD917515 RDZ917515 RNV917515 RXR917515 SHN917515 SRJ917515 TBF917515 TLB917515 TUX917515 UET917515 UOP917515 UYL917515 VIH917515 VSD917515 WBZ917515 WLV917515 WVR917515 J983051 JF983051 TB983051 ACX983051 AMT983051 AWP983051 BGL983051 BQH983051 CAD983051 CJZ983051 CTV983051 DDR983051 DNN983051 DXJ983051 EHF983051 ERB983051 FAX983051 FKT983051 FUP983051 GEL983051 GOH983051 GYD983051 HHZ983051 HRV983051 IBR983051 ILN983051 IVJ983051 JFF983051 JPB983051 JYX983051 KIT983051 KSP983051 LCL983051 LMH983051 LWD983051 MFZ983051 MPV983051 MZR983051 NJN983051 NTJ983051 ODF983051 ONB983051 OWX983051 PGT983051 PQP983051 QAL983051 QKH983051 QUD983051 RDZ983051 RNV983051 RXR983051 SHN983051 SRJ983051 TBF983051 TLB983051 TUX983051 UET983051 UOP983051 UYL983051 VIH983051 VSD983051 WBZ983051 WLV983051" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0935069190,0933290188"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="數量&lt; 0" error="需為數字且大於0" sqref="WVO983054:WVO983056 JC14:JC16 SY14:SY16 ACU14:ACU16 AMQ14:AMQ16 AWM14:AWM16 BGI14:BGI16 BQE14:BQE16 CAA14:CAA16 CJW14:CJW16 CTS14:CTS16 DDO14:DDO16 DNK14:DNK16 DXG14:DXG16 EHC14:EHC16 EQY14:EQY16 FAU14:FAU16 FKQ14:FKQ16 FUM14:FUM16 GEI14:GEI16 GOE14:GOE16 GYA14:GYA16 HHW14:HHW16 HRS14:HRS16 IBO14:IBO16 ILK14:ILK16 IVG14:IVG16 JFC14:JFC16 JOY14:JOY16 JYU14:JYU16 KIQ14:KIQ16 KSM14:KSM16 LCI14:LCI16 LME14:LME16 LWA14:LWA16 MFW14:MFW16 MPS14:MPS16 MZO14:MZO16 NJK14:NJK16 NTG14:NTG16 ODC14:ODC16 OMY14:OMY16 OWU14:OWU16 PGQ14:PGQ16 PQM14:PQM16 QAI14:QAI16 QKE14:QKE16 QUA14:QUA16 RDW14:RDW16 RNS14:RNS16 RXO14:RXO16 SHK14:SHK16 SRG14:SRG16 TBC14:TBC16 TKY14:TKY16 TUU14:TUU16 UEQ14:UEQ16 UOM14:UOM16 UYI14:UYI16 VIE14:VIE16 VSA14:VSA16 WBW14:WBW16 WLS14:WLS16 WVO14:WVO16 G65550:G65552 JC65550:JC65552 SY65550:SY65552 ACU65550:ACU65552 AMQ65550:AMQ65552 AWM65550:AWM65552 BGI65550:BGI65552 BQE65550:BQE65552 CAA65550:CAA65552 CJW65550:CJW65552 CTS65550:CTS65552 DDO65550:DDO65552 DNK65550:DNK65552 DXG65550:DXG65552 EHC65550:EHC65552 EQY65550:EQY65552 FAU65550:FAU65552 FKQ65550:FKQ65552 FUM65550:FUM65552 GEI65550:GEI65552 GOE65550:GOE65552 GYA65550:GYA65552 HHW65550:HHW65552 HRS65550:HRS65552 IBO65550:IBO65552 ILK65550:ILK65552 IVG65550:IVG65552 JFC65550:JFC65552 JOY65550:JOY65552 JYU65550:JYU65552 KIQ65550:KIQ65552 KSM65550:KSM65552 LCI65550:LCI65552 LME65550:LME65552 LWA65550:LWA65552 MFW65550:MFW65552 MPS65550:MPS65552 MZO65550:MZO65552 NJK65550:NJK65552 NTG65550:NTG65552 ODC65550:ODC65552 OMY65550:OMY65552 OWU65550:OWU65552 PGQ65550:PGQ65552 PQM65550:PQM65552 QAI65550:QAI65552 QKE65550:QKE65552 QUA65550:QUA65552 RDW65550:RDW65552 RNS65550:RNS65552 RXO65550:RXO65552 SHK65550:SHK65552 SRG65550:SRG65552 TBC65550:TBC65552 TKY65550:TKY65552 TUU65550:TUU65552 UEQ65550:UEQ65552 UOM65550:UOM65552 UYI65550:UYI65552 VIE65550:VIE65552 VSA65550:VSA65552 WBW65550:WBW65552 WLS65550:WLS65552 WVO65550:WVO65552 G131086:G131088 JC131086:JC131088 SY131086:SY131088 ACU131086:ACU131088 AMQ131086:AMQ131088 AWM131086:AWM131088 BGI131086:BGI131088 BQE131086:BQE131088 CAA131086:CAA131088 CJW131086:CJW131088 CTS131086:CTS131088 DDO131086:DDO131088 DNK131086:DNK131088 DXG131086:DXG131088 EHC131086:EHC131088 EQY131086:EQY131088 FAU131086:FAU131088 FKQ131086:FKQ131088 FUM131086:FUM131088 GEI131086:GEI131088 GOE131086:GOE131088 GYA131086:GYA131088 HHW131086:HHW131088 HRS131086:HRS131088 IBO131086:IBO131088 ILK131086:ILK131088 IVG131086:IVG131088 JFC131086:JFC131088 JOY131086:JOY131088 JYU131086:JYU131088 KIQ131086:KIQ131088 KSM131086:KSM131088 LCI131086:LCI131088 LME131086:LME131088 LWA131086:LWA131088 MFW131086:MFW131088 MPS131086:MPS131088 MZO131086:MZO131088 NJK131086:NJK131088 NTG131086:NTG131088 ODC131086:ODC131088 OMY131086:OMY131088 OWU131086:OWU131088 PGQ131086:PGQ131088 PQM131086:PQM131088 QAI131086:QAI131088 QKE131086:QKE131088 QUA131086:QUA131088 RDW131086:RDW131088 RNS131086:RNS131088 RXO131086:RXO131088 SHK131086:SHK131088 SRG131086:SRG131088 TBC131086:TBC131088 TKY131086:TKY131088 TUU131086:TUU131088 UEQ131086:UEQ131088 UOM131086:UOM131088 UYI131086:UYI131088 VIE131086:VIE131088 VSA131086:VSA131088 WBW131086:WBW131088 WLS131086:WLS131088 WVO131086:WVO131088 G196622:G196624 JC196622:JC196624 SY196622:SY196624 ACU196622:ACU196624 AMQ196622:AMQ196624 AWM196622:AWM196624 BGI196622:BGI196624 BQE196622:BQE196624 CAA196622:CAA196624 CJW196622:CJW196624 CTS196622:CTS196624 DDO196622:DDO196624 DNK196622:DNK196624 DXG196622:DXG196624 EHC196622:EHC196624 EQY196622:EQY196624 FAU196622:FAU196624 FKQ196622:FKQ196624 FUM196622:FUM196624 GEI196622:GEI196624 GOE196622:GOE196624 GYA196622:GYA196624 HHW196622:HHW196624 HRS196622:HRS196624 IBO196622:IBO196624 ILK196622:ILK196624 IVG196622:IVG196624 JFC196622:JFC196624 JOY196622:JOY196624 JYU196622:JYU196624 KIQ196622:KIQ196624 KSM196622:KSM196624 LCI196622:LCI196624 LME196622:LME196624 LWA196622:LWA196624 MFW196622:MFW196624 MPS196622:MPS196624 MZO196622:MZO196624 NJK196622:NJK196624 NTG196622:NTG196624 ODC196622:ODC196624 OMY196622:OMY196624 OWU196622:OWU196624 PGQ196622:PGQ196624 PQM196622:PQM196624 QAI196622:QAI196624 QKE196622:QKE196624 QUA196622:QUA196624 RDW196622:RDW196624 RNS196622:RNS196624 RXO196622:RXO196624 SHK196622:SHK196624 SRG196622:SRG196624 TBC196622:TBC196624 TKY196622:TKY196624 TUU196622:TUU196624 UEQ196622:UEQ196624 UOM196622:UOM196624 UYI196622:UYI196624 VIE196622:VIE196624 VSA196622:VSA196624 WBW196622:WBW196624 WLS196622:WLS196624 WVO196622:WVO196624 G262158:G262160 JC262158:JC262160 SY262158:SY262160 ACU262158:ACU262160 AMQ262158:AMQ262160 AWM262158:AWM262160 BGI262158:BGI262160 BQE262158:BQE262160 CAA262158:CAA262160 CJW262158:CJW262160 CTS262158:CTS262160 DDO262158:DDO262160 DNK262158:DNK262160 DXG262158:DXG262160 EHC262158:EHC262160 EQY262158:EQY262160 FAU262158:FAU262160 FKQ262158:FKQ262160 FUM262158:FUM262160 GEI262158:GEI262160 GOE262158:GOE262160 GYA262158:GYA262160 HHW262158:HHW262160 HRS262158:HRS262160 IBO262158:IBO262160 ILK262158:ILK262160 IVG262158:IVG262160 JFC262158:JFC262160 JOY262158:JOY262160 JYU262158:JYU262160 KIQ262158:KIQ262160 KSM262158:KSM262160 LCI262158:LCI262160 LME262158:LME262160 LWA262158:LWA262160 MFW262158:MFW262160 MPS262158:MPS262160 MZO262158:MZO262160 NJK262158:NJK262160 NTG262158:NTG262160 ODC262158:ODC262160 OMY262158:OMY262160 OWU262158:OWU262160 PGQ262158:PGQ262160 PQM262158:PQM262160 QAI262158:QAI262160 QKE262158:QKE262160 QUA262158:QUA262160 RDW262158:RDW262160 RNS262158:RNS262160 RXO262158:RXO262160 SHK262158:SHK262160 SRG262158:SRG262160 TBC262158:TBC262160 TKY262158:TKY262160 TUU262158:TUU262160 UEQ262158:UEQ262160 UOM262158:UOM262160 UYI262158:UYI262160 VIE262158:VIE262160 VSA262158:VSA262160 WBW262158:WBW262160 WLS262158:WLS262160 WVO262158:WVO262160 G327694:G327696 JC327694:JC327696 SY327694:SY327696 ACU327694:ACU327696 AMQ327694:AMQ327696 AWM327694:AWM327696 BGI327694:BGI327696 BQE327694:BQE327696 CAA327694:CAA327696 CJW327694:CJW327696 CTS327694:CTS327696 DDO327694:DDO327696 DNK327694:DNK327696 DXG327694:DXG327696 EHC327694:EHC327696 EQY327694:EQY327696 FAU327694:FAU327696 FKQ327694:FKQ327696 FUM327694:FUM327696 GEI327694:GEI327696 GOE327694:GOE327696 GYA327694:GYA327696 HHW327694:HHW327696 HRS327694:HRS327696 IBO327694:IBO327696 ILK327694:ILK327696 IVG327694:IVG327696 JFC327694:JFC327696 JOY327694:JOY327696 JYU327694:JYU327696 KIQ327694:KIQ327696 KSM327694:KSM327696 LCI327694:LCI327696 LME327694:LME327696 LWA327694:LWA327696 MFW327694:MFW327696 MPS327694:MPS327696 MZO327694:MZO327696 NJK327694:NJK327696 NTG327694:NTG327696 ODC327694:ODC327696 OMY327694:OMY327696 OWU327694:OWU327696 PGQ327694:PGQ327696 PQM327694:PQM327696 QAI327694:QAI327696 QKE327694:QKE327696 QUA327694:QUA327696 RDW327694:RDW327696 RNS327694:RNS327696 RXO327694:RXO327696 SHK327694:SHK327696 SRG327694:SRG327696 TBC327694:TBC327696 TKY327694:TKY327696 TUU327694:TUU327696 UEQ327694:UEQ327696 UOM327694:UOM327696 UYI327694:UYI327696 VIE327694:VIE327696 VSA327694:VSA327696 WBW327694:WBW327696 WLS327694:WLS327696 WVO327694:WVO327696 G393230:G393232 JC393230:JC393232 SY393230:SY393232 ACU393230:ACU393232 AMQ393230:AMQ393232 AWM393230:AWM393232 BGI393230:BGI393232 BQE393230:BQE393232 CAA393230:CAA393232 CJW393230:CJW393232 CTS393230:CTS393232 DDO393230:DDO393232 DNK393230:DNK393232 DXG393230:DXG393232 EHC393230:EHC393232 EQY393230:EQY393232 FAU393230:FAU393232 FKQ393230:FKQ393232 FUM393230:FUM393232 GEI393230:GEI393232 GOE393230:GOE393232 GYA393230:GYA393232 HHW393230:HHW393232 HRS393230:HRS393232 IBO393230:IBO393232 ILK393230:ILK393232 IVG393230:IVG393232 JFC393230:JFC393232 JOY393230:JOY393232 JYU393230:JYU393232 KIQ393230:KIQ393232 KSM393230:KSM393232 LCI393230:LCI393232 LME393230:LME393232 LWA393230:LWA393232 MFW393230:MFW393232 MPS393230:MPS393232 MZO393230:MZO393232 NJK393230:NJK393232 NTG393230:NTG393232 ODC393230:ODC393232 OMY393230:OMY393232 OWU393230:OWU393232 PGQ393230:PGQ393232 PQM393230:PQM393232 QAI393230:QAI393232 QKE393230:QKE393232 QUA393230:QUA393232 RDW393230:RDW393232 RNS393230:RNS393232 RXO393230:RXO393232 SHK393230:SHK393232 SRG393230:SRG393232 TBC393230:TBC393232 TKY393230:TKY393232 TUU393230:TUU393232 UEQ393230:UEQ393232 UOM393230:UOM393232 UYI393230:UYI393232 VIE393230:VIE393232 VSA393230:VSA393232 WBW393230:WBW393232 WLS393230:WLS393232 WVO393230:WVO393232 G458766:G458768 JC458766:JC458768 SY458766:SY458768 ACU458766:ACU458768 AMQ458766:AMQ458768 AWM458766:AWM458768 BGI458766:BGI458768 BQE458766:BQE458768 CAA458766:CAA458768 CJW458766:CJW458768 CTS458766:CTS458768 DDO458766:DDO458768 DNK458766:DNK458768 DXG458766:DXG458768 EHC458766:EHC458768 EQY458766:EQY458768 FAU458766:FAU458768 FKQ458766:FKQ458768 FUM458766:FUM458768 GEI458766:GEI458768 GOE458766:GOE458768 GYA458766:GYA458768 HHW458766:HHW458768 HRS458766:HRS458768 IBO458766:IBO458768 ILK458766:ILK458768 IVG458766:IVG458768 JFC458766:JFC458768 JOY458766:JOY458768 JYU458766:JYU458768 KIQ458766:KIQ458768 KSM458766:KSM458768 LCI458766:LCI458768 LME458766:LME458768 LWA458766:LWA458768 MFW458766:MFW458768 MPS458766:MPS458768 MZO458766:MZO458768 NJK458766:NJK458768 NTG458766:NTG458768 ODC458766:ODC458768 OMY458766:OMY458768 OWU458766:OWU458768 PGQ458766:PGQ458768 PQM458766:PQM458768 QAI458766:QAI458768 QKE458766:QKE458768 QUA458766:QUA458768 RDW458766:RDW458768 RNS458766:RNS458768 RXO458766:RXO458768 SHK458766:SHK458768 SRG458766:SRG458768 TBC458766:TBC458768 TKY458766:TKY458768 TUU458766:TUU458768 UEQ458766:UEQ458768 UOM458766:UOM458768 UYI458766:UYI458768 VIE458766:VIE458768 VSA458766:VSA458768 WBW458766:WBW458768 WLS458766:WLS458768 WVO458766:WVO458768 G524302:G524304 JC524302:JC524304 SY524302:SY524304 ACU524302:ACU524304 AMQ524302:AMQ524304 AWM524302:AWM524304 BGI524302:BGI524304 BQE524302:BQE524304 CAA524302:CAA524304 CJW524302:CJW524304 CTS524302:CTS524304 DDO524302:DDO524304 DNK524302:DNK524304 DXG524302:DXG524304 EHC524302:EHC524304 EQY524302:EQY524304 FAU524302:FAU524304 FKQ524302:FKQ524304 FUM524302:FUM524304 GEI524302:GEI524304 GOE524302:GOE524304 GYA524302:GYA524304 HHW524302:HHW524304 HRS524302:HRS524304 IBO524302:IBO524304 ILK524302:ILK524304 IVG524302:IVG524304 JFC524302:JFC524304 JOY524302:JOY524304 JYU524302:JYU524304 KIQ524302:KIQ524304 KSM524302:KSM524304 LCI524302:LCI524304 LME524302:LME524304 LWA524302:LWA524304 MFW524302:MFW524304 MPS524302:MPS524304 MZO524302:MZO524304 NJK524302:NJK524304 NTG524302:NTG524304 ODC524302:ODC524304 OMY524302:OMY524304 OWU524302:OWU524304 PGQ524302:PGQ524304 PQM524302:PQM524304 QAI524302:QAI524304 QKE524302:QKE524304 QUA524302:QUA524304 RDW524302:RDW524304 RNS524302:RNS524304 RXO524302:RXO524304 SHK524302:SHK524304 SRG524302:SRG524304 TBC524302:TBC524304 TKY524302:TKY524304 TUU524302:TUU524304 UEQ524302:UEQ524304 UOM524302:UOM524304 UYI524302:UYI524304 VIE524302:VIE524304 VSA524302:VSA524304 WBW524302:WBW524304 WLS524302:WLS524304 WVO524302:WVO524304 G589838:G589840 JC589838:JC589840 SY589838:SY589840 ACU589838:ACU589840 AMQ589838:AMQ589840 AWM589838:AWM589840 BGI589838:BGI589840 BQE589838:BQE589840 CAA589838:CAA589840 CJW589838:CJW589840 CTS589838:CTS589840 DDO589838:DDO589840 DNK589838:DNK589840 DXG589838:DXG589840 EHC589838:EHC589840 EQY589838:EQY589840 FAU589838:FAU589840 FKQ589838:FKQ589840 FUM589838:FUM589840 GEI589838:GEI589840 GOE589838:GOE589840 GYA589838:GYA589840 HHW589838:HHW589840 HRS589838:HRS589840 IBO589838:IBO589840 ILK589838:ILK589840 IVG589838:IVG589840 JFC589838:JFC589840 JOY589838:JOY589840 JYU589838:JYU589840 KIQ589838:KIQ589840 KSM589838:KSM589840 LCI589838:LCI589840 LME589838:LME589840 LWA589838:LWA589840 MFW589838:MFW589840 MPS589838:MPS589840 MZO589838:MZO589840 NJK589838:NJK589840 NTG589838:NTG589840 ODC589838:ODC589840 OMY589838:OMY589840 OWU589838:OWU589840 PGQ589838:PGQ589840 PQM589838:PQM589840 QAI589838:QAI589840 QKE589838:QKE589840 QUA589838:QUA589840 RDW589838:RDW589840 RNS589838:RNS589840 RXO589838:RXO589840 SHK589838:SHK589840 SRG589838:SRG589840 TBC589838:TBC589840 TKY589838:TKY589840 TUU589838:TUU589840 UEQ589838:UEQ589840 UOM589838:UOM589840 UYI589838:UYI589840 VIE589838:VIE589840 VSA589838:VSA589840 WBW589838:WBW589840 WLS589838:WLS589840 WVO589838:WVO589840 G655374:G655376 JC655374:JC655376 SY655374:SY655376 ACU655374:ACU655376 AMQ655374:AMQ655376 AWM655374:AWM655376 BGI655374:BGI655376 BQE655374:BQE655376 CAA655374:CAA655376 CJW655374:CJW655376 CTS655374:CTS655376 DDO655374:DDO655376 DNK655374:DNK655376 DXG655374:DXG655376 EHC655374:EHC655376 EQY655374:EQY655376 FAU655374:FAU655376 FKQ655374:FKQ655376 FUM655374:FUM655376 GEI655374:GEI655376 GOE655374:GOE655376 GYA655374:GYA655376 HHW655374:HHW655376 HRS655374:HRS655376 IBO655374:IBO655376 ILK655374:ILK655376 IVG655374:IVG655376 JFC655374:JFC655376 JOY655374:JOY655376 JYU655374:JYU655376 KIQ655374:KIQ655376 KSM655374:KSM655376 LCI655374:LCI655376 LME655374:LME655376 LWA655374:LWA655376 MFW655374:MFW655376 MPS655374:MPS655376 MZO655374:MZO655376 NJK655374:NJK655376 NTG655374:NTG655376 ODC655374:ODC655376 OMY655374:OMY655376 OWU655374:OWU655376 PGQ655374:PGQ655376 PQM655374:PQM655376 QAI655374:QAI655376 QKE655374:QKE655376 QUA655374:QUA655376 RDW655374:RDW655376 RNS655374:RNS655376 RXO655374:RXO655376 SHK655374:SHK655376 SRG655374:SRG655376 TBC655374:TBC655376 TKY655374:TKY655376 TUU655374:TUU655376 UEQ655374:UEQ655376 UOM655374:UOM655376 UYI655374:UYI655376 VIE655374:VIE655376 VSA655374:VSA655376 WBW655374:WBW655376 WLS655374:WLS655376 WVO655374:WVO655376 G720910:G720912 JC720910:JC720912 SY720910:SY720912 ACU720910:ACU720912 AMQ720910:AMQ720912 AWM720910:AWM720912 BGI720910:BGI720912 BQE720910:BQE720912 CAA720910:CAA720912 CJW720910:CJW720912 CTS720910:CTS720912 DDO720910:DDO720912 DNK720910:DNK720912 DXG720910:DXG720912 EHC720910:EHC720912 EQY720910:EQY720912 FAU720910:FAU720912 FKQ720910:FKQ720912 FUM720910:FUM720912 GEI720910:GEI720912 GOE720910:GOE720912 GYA720910:GYA720912 HHW720910:HHW720912 HRS720910:HRS720912 IBO720910:IBO720912 ILK720910:ILK720912 IVG720910:IVG720912 JFC720910:JFC720912 JOY720910:JOY720912 JYU720910:JYU720912 KIQ720910:KIQ720912 KSM720910:KSM720912 LCI720910:LCI720912 LME720910:LME720912 LWA720910:LWA720912 MFW720910:MFW720912 MPS720910:MPS720912 MZO720910:MZO720912 NJK720910:NJK720912 NTG720910:NTG720912 ODC720910:ODC720912 OMY720910:OMY720912 OWU720910:OWU720912 PGQ720910:PGQ720912 PQM720910:PQM720912 QAI720910:QAI720912 QKE720910:QKE720912 QUA720910:QUA720912 RDW720910:RDW720912 RNS720910:RNS720912 RXO720910:RXO720912 SHK720910:SHK720912 SRG720910:SRG720912 TBC720910:TBC720912 TKY720910:TKY720912 TUU720910:TUU720912 UEQ720910:UEQ720912 UOM720910:UOM720912 UYI720910:UYI720912 VIE720910:VIE720912 VSA720910:VSA720912 WBW720910:WBW720912 WLS720910:WLS720912 WVO720910:WVO720912 G786446:G786448 JC786446:JC786448 SY786446:SY786448 ACU786446:ACU786448 AMQ786446:AMQ786448 AWM786446:AWM786448 BGI786446:BGI786448 BQE786446:BQE786448 CAA786446:CAA786448 CJW786446:CJW786448 CTS786446:CTS786448 DDO786446:DDO786448 DNK786446:DNK786448 DXG786446:DXG786448 EHC786446:EHC786448 EQY786446:EQY786448 FAU786446:FAU786448 FKQ786446:FKQ786448 FUM786446:FUM786448 GEI786446:GEI786448 GOE786446:GOE786448 GYA786446:GYA786448 HHW786446:HHW786448 HRS786446:HRS786448 IBO786446:IBO786448 ILK786446:ILK786448 IVG786446:IVG786448 JFC786446:JFC786448 JOY786446:JOY786448 JYU786446:JYU786448 KIQ786446:KIQ786448 KSM786446:KSM786448 LCI786446:LCI786448 LME786446:LME786448 LWA786446:LWA786448 MFW786446:MFW786448 MPS786446:MPS786448 MZO786446:MZO786448 NJK786446:NJK786448 NTG786446:NTG786448 ODC786446:ODC786448 OMY786446:OMY786448 OWU786446:OWU786448 PGQ786446:PGQ786448 PQM786446:PQM786448 QAI786446:QAI786448 QKE786446:QKE786448 QUA786446:QUA786448 RDW786446:RDW786448 RNS786446:RNS786448 RXO786446:RXO786448 SHK786446:SHK786448 SRG786446:SRG786448 TBC786446:TBC786448 TKY786446:TKY786448 TUU786446:TUU786448 UEQ786446:UEQ786448 UOM786446:UOM786448 UYI786446:UYI786448 VIE786446:VIE786448 VSA786446:VSA786448 WBW786446:WBW786448 WLS786446:WLS786448 WVO786446:WVO786448 G851982:G851984 JC851982:JC851984 SY851982:SY851984 ACU851982:ACU851984 AMQ851982:AMQ851984 AWM851982:AWM851984 BGI851982:BGI851984 BQE851982:BQE851984 CAA851982:CAA851984 CJW851982:CJW851984 CTS851982:CTS851984 DDO851982:DDO851984 DNK851982:DNK851984 DXG851982:DXG851984 EHC851982:EHC851984 EQY851982:EQY851984 FAU851982:FAU851984 FKQ851982:FKQ851984 FUM851982:FUM851984 GEI851982:GEI851984 GOE851982:GOE851984 GYA851982:GYA851984 HHW851982:HHW851984 HRS851982:HRS851984 IBO851982:IBO851984 ILK851982:ILK851984 IVG851982:IVG851984 JFC851982:JFC851984 JOY851982:JOY851984 JYU851982:JYU851984 KIQ851982:KIQ851984 KSM851982:KSM851984 LCI851982:LCI851984 LME851982:LME851984 LWA851982:LWA851984 MFW851982:MFW851984 MPS851982:MPS851984 MZO851982:MZO851984 NJK851982:NJK851984 NTG851982:NTG851984 ODC851982:ODC851984 OMY851982:OMY851984 OWU851982:OWU851984 PGQ851982:PGQ851984 PQM851982:PQM851984 QAI851982:QAI851984 QKE851982:QKE851984 QUA851982:QUA851984 RDW851982:RDW851984 RNS851982:RNS851984 RXO851982:RXO851984 SHK851982:SHK851984 SRG851982:SRG851984 TBC851982:TBC851984 TKY851982:TKY851984 TUU851982:TUU851984 UEQ851982:UEQ851984 UOM851982:UOM851984 UYI851982:UYI851984 VIE851982:VIE851984 VSA851982:VSA851984 WBW851982:WBW851984 WLS851982:WLS851984 WVO851982:WVO851984 G917518:G917520 JC917518:JC917520 SY917518:SY917520 ACU917518:ACU917520 AMQ917518:AMQ917520 AWM917518:AWM917520 BGI917518:BGI917520 BQE917518:BQE917520 CAA917518:CAA917520 CJW917518:CJW917520 CTS917518:CTS917520 DDO917518:DDO917520 DNK917518:DNK917520 DXG917518:DXG917520 EHC917518:EHC917520 EQY917518:EQY917520 FAU917518:FAU917520 FKQ917518:FKQ917520 FUM917518:FUM917520 GEI917518:GEI917520 GOE917518:GOE917520 GYA917518:GYA917520 HHW917518:HHW917520 HRS917518:HRS917520 IBO917518:IBO917520 ILK917518:ILK917520 IVG917518:IVG917520 JFC917518:JFC917520 JOY917518:JOY917520 JYU917518:JYU917520 KIQ917518:KIQ917520 KSM917518:KSM917520 LCI917518:LCI917520 LME917518:LME917520 LWA917518:LWA917520 MFW917518:MFW917520 MPS917518:MPS917520 MZO917518:MZO917520 NJK917518:NJK917520 NTG917518:NTG917520 ODC917518:ODC917520 OMY917518:OMY917520 OWU917518:OWU917520 PGQ917518:PGQ917520 PQM917518:PQM917520 QAI917518:QAI917520 QKE917518:QKE917520 QUA917518:QUA917520 RDW917518:RDW917520 RNS917518:RNS917520 RXO917518:RXO917520 SHK917518:SHK917520 SRG917518:SRG917520 TBC917518:TBC917520 TKY917518:TKY917520 TUU917518:TUU917520 UEQ917518:UEQ917520 UOM917518:UOM917520 UYI917518:UYI917520 VIE917518:VIE917520 VSA917518:VSA917520 WBW917518:WBW917520 WLS917518:WLS917520 WVO917518:WVO917520 G983054:G983056 JC983054:JC983056 SY983054:SY983056 ACU983054:ACU983056 AMQ983054:AMQ983056 AWM983054:AWM983056 BGI983054:BGI983056 BQE983054:BQE983056 CAA983054:CAA983056 CJW983054:CJW983056 CTS983054:CTS983056 DDO983054:DDO983056 DNK983054:DNK983056 DXG983054:DXG983056 EHC983054:EHC983056 EQY983054:EQY983056 FAU983054:FAU983056 FKQ983054:FKQ983056 FUM983054:FUM983056 GEI983054:GEI983056 GOE983054:GOE983056 GYA983054:GYA983056 HHW983054:HHW983056 HRS983054:HRS983056 IBO983054:IBO983056 ILK983054:ILK983056 IVG983054:IVG983056 JFC983054:JFC983056 JOY983054:JOY983056 JYU983054:JYU983056 KIQ983054:KIQ983056 KSM983054:KSM983056 LCI983054:LCI983056 LME983054:LME983056 LWA983054:LWA983056 MFW983054:MFW983056 MPS983054:MPS983056 MZO983054:MZO983056 NJK983054:NJK983056 NTG983054:NTG983056 ODC983054:ODC983056 OMY983054:OMY983056 OWU983054:OWU983056 PGQ983054:PGQ983056 PQM983054:PQM983056 QAI983054:QAI983056 QKE983054:QKE983056 QUA983054:QUA983056 RDW983054:RDW983056 RNS983054:RNS983056 RXO983054:RXO983056 SHK983054:SHK983056 SRG983054:SRG983056 TBC983054:TBC983056 TKY983054:TKY983056 TUU983054:TUU983056 UEQ983054:UEQ983056 UOM983054:UOM983056 UYI983054:UYI983056 VIE983054:VIE983056 VSA983054:VSA983056 WBW983054:WBW983056 WLS983054:WLS983056">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="數量&lt; 0" error="需為數字且大於0" sqref="WVO983054:WVO983056 JC14:JC16 SY14:SY16 ACU14:ACU16 AMQ14:AMQ16 AWM14:AWM16 BGI14:BGI16 BQE14:BQE16 CAA14:CAA16 CJW14:CJW16 CTS14:CTS16 DDO14:DDO16 DNK14:DNK16 DXG14:DXG16 EHC14:EHC16 EQY14:EQY16 FAU14:FAU16 FKQ14:FKQ16 FUM14:FUM16 GEI14:GEI16 GOE14:GOE16 GYA14:GYA16 HHW14:HHW16 HRS14:HRS16 IBO14:IBO16 ILK14:ILK16 IVG14:IVG16 JFC14:JFC16 JOY14:JOY16 JYU14:JYU16 KIQ14:KIQ16 KSM14:KSM16 LCI14:LCI16 LME14:LME16 LWA14:LWA16 MFW14:MFW16 MPS14:MPS16 MZO14:MZO16 NJK14:NJK16 NTG14:NTG16 ODC14:ODC16 OMY14:OMY16 OWU14:OWU16 PGQ14:PGQ16 PQM14:PQM16 QAI14:QAI16 QKE14:QKE16 QUA14:QUA16 RDW14:RDW16 RNS14:RNS16 RXO14:RXO16 SHK14:SHK16 SRG14:SRG16 TBC14:TBC16 TKY14:TKY16 TUU14:TUU16 UEQ14:UEQ16 UOM14:UOM16 UYI14:UYI16 VIE14:VIE16 VSA14:VSA16 WBW14:WBW16 WLS14:WLS16 WVO14:WVO16 G65550:G65552 JC65550:JC65552 SY65550:SY65552 ACU65550:ACU65552 AMQ65550:AMQ65552 AWM65550:AWM65552 BGI65550:BGI65552 BQE65550:BQE65552 CAA65550:CAA65552 CJW65550:CJW65552 CTS65550:CTS65552 DDO65550:DDO65552 DNK65550:DNK65552 DXG65550:DXG65552 EHC65550:EHC65552 EQY65550:EQY65552 FAU65550:FAU65552 FKQ65550:FKQ65552 FUM65550:FUM65552 GEI65550:GEI65552 GOE65550:GOE65552 GYA65550:GYA65552 HHW65550:HHW65552 HRS65550:HRS65552 IBO65550:IBO65552 ILK65550:ILK65552 IVG65550:IVG65552 JFC65550:JFC65552 JOY65550:JOY65552 JYU65550:JYU65552 KIQ65550:KIQ65552 KSM65550:KSM65552 LCI65550:LCI65552 LME65550:LME65552 LWA65550:LWA65552 MFW65550:MFW65552 MPS65550:MPS65552 MZO65550:MZO65552 NJK65550:NJK65552 NTG65550:NTG65552 ODC65550:ODC65552 OMY65550:OMY65552 OWU65550:OWU65552 PGQ65550:PGQ65552 PQM65550:PQM65552 QAI65550:QAI65552 QKE65550:QKE65552 QUA65550:QUA65552 RDW65550:RDW65552 RNS65550:RNS65552 RXO65550:RXO65552 SHK65550:SHK65552 SRG65550:SRG65552 TBC65550:TBC65552 TKY65550:TKY65552 TUU65550:TUU65552 UEQ65550:UEQ65552 UOM65550:UOM65552 UYI65550:UYI65552 VIE65550:VIE65552 VSA65550:VSA65552 WBW65550:WBW65552 WLS65550:WLS65552 WVO65550:WVO65552 G131086:G131088 JC131086:JC131088 SY131086:SY131088 ACU131086:ACU131088 AMQ131086:AMQ131088 AWM131086:AWM131088 BGI131086:BGI131088 BQE131086:BQE131088 CAA131086:CAA131088 CJW131086:CJW131088 CTS131086:CTS131088 DDO131086:DDO131088 DNK131086:DNK131088 DXG131086:DXG131088 EHC131086:EHC131088 EQY131086:EQY131088 FAU131086:FAU131088 FKQ131086:FKQ131088 FUM131086:FUM131088 GEI131086:GEI131088 GOE131086:GOE131088 GYA131086:GYA131088 HHW131086:HHW131088 HRS131086:HRS131088 IBO131086:IBO131088 ILK131086:ILK131088 IVG131086:IVG131088 JFC131086:JFC131088 JOY131086:JOY131088 JYU131086:JYU131088 KIQ131086:KIQ131088 KSM131086:KSM131088 LCI131086:LCI131088 LME131086:LME131088 LWA131086:LWA131088 MFW131086:MFW131088 MPS131086:MPS131088 MZO131086:MZO131088 NJK131086:NJK131088 NTG131086:NTG131088 ODC131086:ODC131088 OMY131086:OMY131088 OWU131086:OWU131088 PGQ131086:PGQ131088 PQM131086:PQM131088 QAI131086:QAI131088 QKE131086:QKE131088 QUA131086:QUA131088 RDW131086:RDW131088 RNS131086:RNS131088 RXO131086:RXO131088 SHK131086:SHK131088 SRG131086:SRG131088 TBC131086:TBC131088 TKY131086:TKY131088 TUU131086:TUU131088 UEQ131086:UEQ131088 UOM131086:UOM131088 UYI131086:UYI131088 VIE131086:VIE131088 VSA131086:VSA131088 WBW131086:WBW131088 WLS131086:WLS131088 WVO131086:WVO131088 G196622:G196624 JC196622:JC196624 SY196622:SY196624 ACU196622:ACU196624 AMQ196622:AMQ196624 AWM196622:AWM196624 BGI196622:BGI196624 BQE196622:BQE196624 CAA196622:CAA196624 CJW196622:CJW196624 CTS196622:CTS196624 DDO196622:DDO196624 DNK196622:DNK196624 DXG196622:DXG196624 EHC196622:EHC196624 EQY196622:EQY196624 FAU196622:FAU196624 FKQ196622:FKQ196624 FUM196622:FUM196624 GEI196622:GEI196624 GOE196622:GOE196624 GYA196622:GYA196624 HHW196622:HHW196624 HRS196622:HRS196624 IBO196622:IBO196624 ILK196622:ILK196624 IVG196622:IVG196624 JFC196622:JFC196624 JOY196622:JOY196624 JYU196622:JYU196624 KIQ196622:KIQ196624 KSM196622:KSM196624 LCI196622:LCI196624 LME196622:LME196624 LWA196622:LWA196624 MFW196622:MFW196624 MPS196622:MPS196624 MZO196622:MZO196624 NJK196622:NJK196624 NTG196622:NTG196624 ODC196622:ODC196624 OMY196622:OMY196624 OWU196622:OWU196624 PGQ196622:PGQ196624 PQM196622:PQM196624 QAI196622:QAI196624 QKE196622:QKE196624 QUA196622:QUA196624 RDW196622:RDW196624 RNS196622:RNS196624 RXO196622:RXO196624 SHK196622:SHK196624 SRG196622:SRG196624 TBC196622:TBC196624 TKY196622:TKY196624 TUU196622:TUU196624 UEQ196622:UEQ196624 UOM196622:UOM196624 UYI196622:UYI196624 VIE196622:VIE196624 VSA196622:VSA196624 WBW196622:WBW196624 WLS196622:WLS196624 WVO196622:WVO196624 G262158:G262160 JC262158:JC262160 SY262158:SY262160 ACU262158:ACU262160 AMQ262158:AMQ262160 AWM262158:AWM262160 BGI262158:BGI262160 BQE262158:BQE262160 CAA262158:CAA262160 CJW262158:CJW262160 CTS262158:CTS262160 DDO262158:DDO262160 DNK262158:DNK262160 DXG262158:DXG262160 EHC262158:EHC262160 EQY262158:EQY262160 FAU262158:FAU262160 FKQ262158:FKQ262160 FUM262158:FUM262160 GEI262158:GEI262160 GOE262158:GOE262160 GYA262158:GYA262160 HHW262158:HHW262160 HRS262158:HRS262160 IBO262158:IBO262160 ILK262158:ILK262160 IVG262158:IVG262160 JFC262158:JFC262160 JOY262158:JOY262160 JYU262158:JYU262160 KIQ262158:KIQ262160 KSM262158:KSM262160 LCI262158:LCI262160 LME262158:LME262160 LWA262158:LWA262160 MFW262158:MFW262160 MPS262158:MPS262160 MZO262158:MZO262160 NJK262158:NJK262160 NTG262158:NTG262160 ODC262158:ODC262160 OMY262158:OMY262160 OWU262158:OWU262160 PGQ262158:PGQ262160 PQM262158:PQM262160 QAI262158:QAI262160 QKE262158:QKE262160 QUA262158:QUA262160 RDW262158:RDW262160 RNS262158:RNS262160 RXO262158:RXO262160 SHK262158:SHK262160 SRG262158:SRG262160 TBC262158:TBC262160 TKY262158:TKY262160 TUU262158:TUU262160 UEQ262158:UEQ262160 UOM262158:UOM262160 UYI262158:UYI262160 VIE262158:VIE262160 VSA262158:VSA262160 WBW262158:WBW262160 WLS262158:WLS262160 WVO262158:WVO262160 G327694:G327696 JC327694:JC327696 SY327694:SY327696 ACU327694:ACU327696 AMQ327694:AMQ327696 AWM327694:AWM327696 BGI327694:BGI327696 BQE327694:BQE327696 CAA327694:CAA327696 CJW327694:CJW327696 CTS327694:CTS327696 DDO327694:DDO327696 DNK327694:DNK327696 DXG327694:DXG327696 EHC327694:EHC327696 EQY327694:EQY327696 FAU327694:FAU327696 FKQ327694:FKQ327696 FUM327694:FUM327696 GEI327694:GEI327696 GOE327694:GOE327696 GYA327694:GYA327696 HHW327694:HHW327696 HRS327694:HRS327696 IBO327694:IBO327696 ILK327694:ILK327696 IVG327694:IVG327696 JFC327694:JFC327696 JOY327694:JOY327696 JYU327694:JYU327696 KIQ327694:KIQ327696 KSM327694:KSM327696 LCI327694:LCI327696 LME327694:LME327696 LWA327694:LWA327696 MFW327694:MFW327696 MPS327694:MPS327696 MZO327694:MZO327696 NJK327694:NJK327696 NTG327694:NTG327696 ODC327694:ODC327696 OMY327694:OMY327696 OWU327694:OWU327696 PGQ327694:PGQ327696 PQM327694:PQM327696 QAI327694:QAI327696 QKE327694:QKE327696 QUA327694:QUA327696 RDW327694:RDW327696 RNS327694:RNS327696 RXO327694:RXO327696 SHK327694:SHK327696 SRG327694:SRG327696 TBC327694:TBC327696 TKY327694:TKY327696 TUU327694:TUU327696 UEQ327694:UEQ327696 UOM327694:UOM327696 UYI327694:UYI327696 VIE327694:VIE327696 VSA327694:VSA327696 WBW327694:WBW327696 WLS327694:WLS327696 WVO327694:WVO327696 G393230:G393232 JC393230:JC393232 SY393230:SY393232 ACU393230:ACU393232 AMQ393230:AMQ393232 AWM393230:AWM393232 BGI393230:BGI393232 BQE393230:BQE393232 CAA393230:CAA393232 CJW393230:CJW393232 CTS393230:CTS393232 DDO393230:DDO393232 DNK393230:DNK393232 DXG393230:DXG393232 EHC393230:EHC393232 EQY393230:EQY393232 FAU393230:FAU393232 FKQ393230:FKQ393232 FUM393230:FUM393232 GEI393230:GEI393232 GOE393230:GOE393232 GYA393230:GYA393232 HHW393230:HHW393232 HRS393230:HRS393232 IBO393230:IBO393232 ILK393230:ILK393232 IVG393230:IVG393232 JFC393230:JFC393232 JOY393230:JOY393232 JYU393230:JYU393232 KIQ393230:KIQ393232 KSM393230:KSM393232 LCI393230:LCI393232 LME393230:LME393232 LWA393230:LWA393232 MFW393230:MFW393232 MPS393230:MPS393232 MZO393230:MZO393232 NJK393230:NJK393232 NTG393230:NTG393232 ODC393230:ODC393232 OMY393230:OMY393232 OWU393230:OWU393232 PGQ393230:PGQ393232 PQM393230:PQM393232 QAI393230:QAI393232 QKE393230:QKE393232 QUA393230:QUA393232 RDW393230:RDW393232 RNS393230:RNS393232 RXO393230:RXO393232 SHK393230:SHK393232 SRG393230:SRG393232 TBC393230:TBC393232 TKY393230:TKY393232 TUU393230:TUU393232 UEQ393230:UEQ393232 UOM393230:UOM393232 UYI393230:UYI393232 VIE393230:VIE393232 VSA393230:VSA393232 WBW393230:WBW393232 WLS393230:WLS393232 WVO393230:WVO393232 G458766:G458768 JC458766:JC458768 SY458766:SY458768 ACU458766:ACU458768 AMQ458766:AMQ458768 AWM458766:AWM458768 BGI458766:BGI458768 BQE458766:BQE458768 CAA458766:CAA458768 CJW458766:CJW458768 CTS458766:CTS458768 DDO458766:DDO458768 DNK458766:DNK458768 DXG458766:DXG458768 EHC458766:EHC458768 EQY458766:EQY458768 FAU458766:FAU458768 FKQ458766:FKQ458768 FUM458766:FUM458768 GEI458766:GEI458768 GOE458766:GOE458768 GYA458766:GYA458768 HHW458766:HHW458768 HRS458766:HRS458768 IBO458766:IBO458768 ILK458766:ILK458768 IVG458766:IVG458768 JFC458766:JFC458768 JOY458766:JOY458768 JYU458766:JYU458768 KIQ458766:KIQ458768 KSM458766:KSM458768 LCI458766:LCI458768 LME458766:LME458768 LWA458766:LWA458768 MFW458766:MFW458768 MPS458766:MPS458768 MZO458766:MZO458768 NJK458766:NJK458768 NTG458766:NTG458768 ODC458766:ODC458768 OMY458766:OMY458768 OWU458766:OWU458768 PGQ458766:PGQ458768 PQM458766:PQM458768 QAI458766:QAI458768 QKE458766:QKE458768 QUA458766:QUA458768 RDW458766:RDW458768 RNS458766:RNS458768 RXO458766:RXO458768 SHK458766:SHK458768 SRG458766:SRG458768 TBC458766:TBC458768 TKY458766:TKY458768 TUU458766:TUU458768 UEQ458766:UEQ458768 UOM458766:UOM458768 UYI458766:UYI458768 VIE458766:VIE458768 VSA458766:VSA458768 WBW458766:WBW458768 WLS458766:WLS458768 WVO458766:WVO458768 G524302:G524304 JC524302:JC524304 SY524302:SY524304 ACU524302:ACU524304 AMQ524302:AMQ524304 AWM524302:AWM524304 BGI524302:BGI524304 BQE524302:BQE524304 CAA524302:CAA524304 CJW524302:CJW524304 CTS524302:CTS524304 DDO524302:DDO524304 DNK524302:DNK524304 DXG524302:DXG524304 EHC524302:EHC524304 EQY524302:EQY524304 FAU524302:FAU524304 FKQ524302:FKQ524304 FUM524302:FUM524304 GEI524302:GEI524304 GOE524302:GOE524304 GYA524302:GYA524304 HHW524302:HHW524304 HRS524302:HRS524304 IBO524302:IBO524304 ILK524302:ILK524304 IVG524302:IVG524304 JFC524302:JFC524304 JOY524302:JOY524304 JYU524302:JYU524304 KIQ524302:KIQ524304 KSM524302:KSM524304 LCI524302:LCI524304 LME524302:LME524304 LWA524302:LWA524304 MFW524302:MFW524304 MPS524302:MPS524304 MZO524302:MZO524304 NJK524302:NJK524304 NTG524302:NTG524304 ODC524302:ODC524304 OMY524302:OMY524304 OWU524302:OWU524304 PGQ524302:PGQ524304 PQM524302:PQM524304 QAI524302:QAI524304 QKE524302:QKE524304 QUA524302:QUA524304 RDW524302:RDW524304 RNS524302:RNS524304 RXO524302:RXO524304 SHK524302:SHK524304 SRG524302:SRG524304 TBC524302:TBC524304 TKY524302:TKY524304 TUU524302:TUU524304 UEQ524302:UEQ524304 UOM524302:UOM524304 UYI524302:UYI524304 VIE524302:VIE524304 VSA524302:VSA524304 WBW524302:WBW524304 WLS524302:WLS524304 WVO524302:WVO524304 G589838:G589840 JC589838:JC589840 SY589838:SY589840 ACU589838:ACU589840 AMQ589838:AMQ589840 AWM589838:AWM589840 BGI589838:BGI589840 BQE589838:BQE589840 CAA589838:CAA589840 CJW589838:CJW589840 CTS589838:CTS589840 DDO589838:DDO589840 DNK589838:DNK589840 DXG589838:DXG589840 EHC589838:EHC589840 EQY589838:EQY589840 FAU589838:FAU589840 FKQ589838:FKQ589840 FUM589838:FUM589840 GEI589838:GEI589840 GOE589838:GOE589840 GYA589838:GYA589840 HHW589838:HHW589840 HRS589838:HRS589840 IBO589838:IBO589840 ILK589838:ILK589840 IVG589838:IVG589840 JFC589838:JFC589840 JOY589838:JOY589840 JYU589838:JYU589840 KIQ589838:KIQ589840 KSM589838:KSM589840 LCI589838:LCI589840 LME589838:LME589840 LWA589838:LWA589840 MFW589838:MFW589840 MPS589838:MPS589840 MZO589838:MZO589840 NJK589838:NJK589840 NTG589838:NTG589840 ODC589838:ODC589840 OMY589838:OMY589840 OWU589838:OWU589840 PGQ589838:PGQ589840 PQM589838:PQM589840 QAI589838:QAI589840 QKE589838:QKE589840 QUA589838:QUA589840 RDW589838:RDW589840 RNS589838:RNS589840 RXO589838:RXO589840 SHK589838:SHK589840 SRG589838:SRG589840 TBC589838:TBC589840 TKY589838:TKY589840 TUU589838:TUU589840 UEQ589838:UEQ589840 UOM589838:UOM589840 UYI589838:UYI589840 VIE589838:VIE589840 VSA589838:VSA589840 WBW589838:WBW589840 WLS589838:WLS589840 WVO589838:WVO589840 G655374:G655376 JC655374:JC655376 SY655374:SY655376 ACU655374:ACU655376 AMQ655374:AMQ655376 AWM655374:AWM655376 BGI655374:BGI655376 BQE655374:BQE655376 CAA655374:CAA655376 CJW655374:CJW655376 CTS655374:CTS655376 DDO655374:DDO655376 DNK655374:DNK655376 DXG655374:DXG655376 EHC655374:EHC655376 EQY655374:EQY655376 FAU655374:FAU655376 FKQ655374:FKQ655376 FUM655374:FUM655376 GEI655374:GEI655376 GOE655374:GOE655376 GYA655374:GYA655376 HHW655374:HHW655376 HRS655374:HRS655376 IBO655374:IBO655376 ILK655374:ILK655376 IVG655374:IVG655376 JFC655374:JFC655376 JOY655374:JOY655376 JYU655374:JYU655376 KIQ655374:KIQ655376 KSM655374:KSM655376 LCI655374:LCI655376 LME655374:LME655376 LWA655374:LWA655376 MFW655374:MFW655376 MPS655374:MPS655376 MZO655374:MZO655376 NJK655374:NJK655376 NTG655374:NTG655376 ODC655374:ODC655376 OMY655374:OMY655376 OWU655374:OWU655376 PGQ655374:PGQ655376 PQM655374:PQM655376 QAI655374:QAI655376 QKE655374:QKE655376 QUA655374:QUA655376 RDW655374:RDW655376 RNS655374:RNS655376 RXO655374:RXO655376 SHK655374:SHK655376 SRG655374:SRG655376 TBC655374:TBC655376 TKY655374:TKY655376 TUU655374:TUU655376 UEQ655374:UEQ655376 UOM655374:UOM655376 UYI655374:UYI655376 VIE655374:VIE655376 VSA655374:VSA655376 WBW655374:WBW655376 WLS655374:WLS655376 WVO655374:WVO655376 G720910:G720912 JC720910:JC720912 SY720910:SY720912 ACU720910:ACU720912 AMQ720910:AMQ720912 AWM720910:AWM720912 BGI720910:BGI720912 BQE720910:BQE720912 CAA720910:CAA720912 CJW720910:CJW720912 CTS720910:CTS720912 DDO720910:DDO720912 DNK720910:DNK720912 DXG720910:DXG720912 EHC720910:EHC720912 EQY720910:EQY720912 FAU720910:FAU720912 FKQ720910:FKQ720912 FUM720910:FUM720912 GEI720910:GEI720912 GOE720910:GOE720912 GYA720910:GYA720912 HHW720910:HHW720912 HRS720910:HRS720912 IBO720910:IBO720912 ILK720910:ILK720912 IVG720910:IVG720912 JFC720910:JFC720912 JOY720910:JOY720912 JYU720910:JYU720912 KIQ720910:KIQ720912 KSM720910:KSM720912 LCI720910:LCI720912 LME720910:LME720912 LWA720910:LWA720912 MFW720910:MFW720912 MPS720910:MPS720912 MZO720910:MZO720912 NJK720910:NJK720912 NTG720910:NTG720912 ODC720910:ODC720912 OMY720910:OMY720912 OWU720910:OWU720912 PGQ720910:PGQ720912 PQM720910:PQM720912 QAI720910:QAI720912 QKE720910:QKE720912 QUA720910:QUA720912 RDW720910:RDW720912 RNS720910:RNS720912 RXO720910:RXO720912 SHK720910:SHK720912 SRG720910:SRG720912 TBC720910:TBC720912 TKY720910:TKY720912 TUU720910:TUU720912 UEQ720910:UEQ720912 UOM720910:UOM720912 UYI720910:UYI720912 VIE720910:VIE720912 VSA720910:VSA720912 WBW720910:WBW720912 WLS720910:WLS720912 WVO720910:WVO720912 G786446:G786448 JC786446:JC786448 SY786446:SY786448 ACU786446:ACU786448 AMQ786446:AMQ786448 AWM786446:AWM786448 BGI786446:BGI786448 BQE786446:BQE786448 CAA786446:CAA786448 CJW786446:CJW786448 CTS786446:CTS786448 DDO786446:DDO786448 DNK786446:DNK786448 DXG786446:DXG786448 EHC786446:EHC786448 EQY786446:EQY786448 FAU786446:FAU786448 FKQ786446:FKQ786448 FUM786446:FUM786448 GEI786446:GEI786448 GOE786446:GOE786448 GYA786446:GYA786448 HHW786446:HHW786448 HRS786446:HRS786448 IBO786446:IBO786448 ILK786446:ILK786448 IVG786446:IVG786448 JFC786446:JFC786448 JOY786446:JOY786448 JYU786446:JYU786448 KIQ786446:KIQ786448 KSM786446:KSM786448 LCI786446:LCI786448 LME786446:LME786448 LWA786446:LWA786448 MFW786446:MFW786448 MPS786446:MPS786448 MZO786446:MZO786448 NJK786446:NJK786448 NTG786446:NTG786448 ODC786446:ODC786448 OMY786446:OMY786448 OWU786446:OWU786448 PGQ786446:PGQ786448 PQM786446:PQM786448 QAI786446:QAI786448 QKE786446:QKE786448 QUA786446:QUA786448 RDW786446:RDW786448 RNS786446:RNS786448 RXO786446:RXO786448 SHK786446:SHK786448 SRG786446:SRG786448 TBC786446:TBC786448 TKY786446:TKY786448 TUU786446:TUU786448 UEQ786446:UEQ786448 UOM786446:UOM786448 UYI786446:UYI786448 VIE786446:VIE786448 VSA786446:VSA786448 WBW786446:WBW786448 WLS786446:WLS786448 WVO786446:WVO786448 G851982:G851984 JC851982:JC851984 SY851982:SY851984 ACU851982:ACU851984 AMQ851982:AMQ851984 AWM851982:AWM851984 BGI851982:BGI851984 BQE851982:BQE851984 CAA851982:CAA851984 CJW851982:CJW851984 CTS851982:CTS851984 DDO851982:DDO851984 DNK851982:DNK851984 DXG851982:DXG851984 EHC851982:EHC851984 EQY851982:EQY851984 FAU851982:FAU851984 FKQ851982:FKQ851984 FUM851982:FUM851984 GEI851982:GEI851984 GOE851982:GOE851984 GYA851982:GYA851984 HHW851982:HHW851984 HRS851982:HRS851984 IBO851982:IBO851984 ILK851982:ILK851984 IVG851982:IVG851984 JFC851982:JFC851984 JOY851982:JOY851984 JYU851982:JYU851984 KIQ851982:KIQ851984 KSM851982:KSM851984 LCI851982:LCI851984 LME851982:LME851984 LWA851982:LWA851984 MFW851982:MFW851984 MPS851982:MPS851984 MZO851982:MZO851984 NJK851982:NJK851984 NTG851982:NTG851984 ODC851982:ODC851984 OMY851982:OMY851984 OWU851982:OWU851984 PGQ851982:PGQ851984 PQM851982:PQM851984 QAI851982:QAI851984 QKE851982:QKE851984 QUA851982:QUA851984 RDW851982:RDW851984 RNS851982:RNS851984 RXO851982:RXO851984 SHK851982:SHK851984 SRG851982:SRG851984 TBC851982:TBC851984 TKY851982:TKY851984 TUU851982:TUU851984 UEQ851982:UEQ851984 UOM851982:UOM851984 UYI851982:UYI851984 VIE851982:VIE851984 VSA851982:VSA851984 WBW851982:WBW851984 WLS851982:WLS851984 WVO851982:WVO851984 G917518:G917520 JC917518:JC917520 SY917518:SY917520 ACU917518:ACU917520 AMQ917518:AMQ917520 AWM917518:AWM917520 BGI917518:BGI917520 BQE917518:BQE917520 CAA917518:CAA917520 CJW917518:CJW917520 CTS917518:CTS917520 DDO917518:DDO917520 DNK917518:DNK917520 DXG917518:DXG917520 EHC917518:EHC917520 EQY917518:EQY917520 FAU917518:FAU917520 FKQ917518:FKQ917520 FUM917518:FUM917520 GEI917518:GEI917520 GOE917518:GOE917520 GYA917518:GYA917520 HHW917518:HHW917520 HRS917518:HRS917520 IBO917518:IBO917520 ILK917518:ILK917520 IVG917518:IVG917520 JFC917518:JFC917520 JOY917518:JOY917520 JYU917518:JYU917520 KIQ917518:KIQ917520 KSM917518:KSM917520 LCI917518:LCI917520 LME917518:LME917520 LWA917518:LWA917520 MFW917518:MFW917520 MPS917518:MPS917520 MZO917518:MZO917520 NJK917518:NJK917520 NTG917518:NTG917520 ODC917518:ODC917520 OMY917518:OMY917520 OWU917518:OWU917520 PGQ917518:PGQ917520 PQM917518:PQM917520 QAI917518:QAI917520 QKE917518:QKE917520 QUA917518:QUA917520 RDW917518:RDW917520 RNS917518:RNS917520 RXO917518:RXO917520 SHK917518:SHK917520 SRG917518:SRG917520 TBC917518:TBC917520 TKY917518:TKY917520 TUU917518:TUU917520 UEQ917518:UEQ917520 UOM917518:UOM917520 UYI917518:UYI917520 VIE917518:VIE917520 VSA917518:VSA917520 WBW917518:WBW917520 WLS917518:WLS917520 WVO917518:WVO917520 G983054:G983056 JC983054:JC983056 SY983054:SY983056 ACU983054:ACU983056 AMQ983054:AMQ983056 AWM983054:AWM983056 BGI983054:BGI983056 BQE983054:BQE983056 CAA983054:CAA983056 CJW983054:CJW983056 CTS983054:CTS983056 DDO983054:DDO983056 DNK983054:DNK983056 DXG983054:DXG983056 EHC983054:EHC983056 EQY983054:EQY983056 FAU983054:FAU983056 FKQ983054:FKQ983056 FUM983054:FUM983056 GEI983054:GEI983056 GOE983054:GOE983056 GYA983054:GYA983056 HHW983054:HHW983056 HRS983054:HRS983056 IBO983054:IBO983056 ILK983054:ILK983056 IVG983054:IVG983056 JFC983054:JFC983056 JOY983054:JOY983056 JYU983054:JYU983056 KIQ983054:KIQ983056 KSM983054:KSM983056 LCI983054:LCI983056 LME983054:LME983056 LWA983054:LWA983056 MFW983054:MFW983056 MPS983054:MPS983056 MZO983054:MZO983056 NJK983054:NJK983056 NTG983054:NTG983056 ODC983054:ODC983056 OMY983054:OMY983056 OWU983054:OWU983056 PGQ983054:PGQ983056 PQM983054:PQM983056 QAI983054:QAI983056 QKE983054:QKE983056 QUA983054:QUA983056 RDW983054:RDW983056 RNS983054:RNS983056 RXO983054:RXO983056 SHK983054:SHK983056 SRG983054:SRG983056 TBC983054:TBC983056 TKY983054:TKY983056 TUU983054:TUU983056 UEQ983054:UEQ983056 UOM983054:UOM983056 UYI983054:UYI983056 VIE983054:VIE983056 VSA983054:VSA983056 WBW983054:WBW983056 WLS983054:WLS983056" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/media/system_files/quotation_template.xlsx
+++ b/media/system_files/quotation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61F49C-887E-44C5-94F1-2B8A69E6F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BF5579-E59A-4E49-9581-F68B0FAAE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">   艾力克電機股份有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -544,6 +544,9 @@
   <si>
     <t>all_sum</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote_date</t>
   </si>
 </sst>
 </file>
@@ -1151,101 +1154,8 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1331,8 +1241,101 @@
     <xf numFmtId="178" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -20266,8 +20269,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="15"/>
@@ -20916,57 +20919,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="54"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16.2">
       <c r="G2" s="2"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="55"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="16.2">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="19.8">
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:11">
@@ -20976,19 +20979,19 @@
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="61"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="9" t="s">
         <v>9</v>
       </c>
@@ -21000,41 +21003,43 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="104"/>
       <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="14" t="s">
         <v>44</v>
       </c>
@@ -21046,19 +21051,19 @@
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="64"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="14" t="s">
         <v>17</v>
       </c>
@@ -21070,15 +21075,15 @@
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="44" t="s">
         <v>45</v>
       </c>
@@ -21093,12 +21098,12 @@
       <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
@@ -21120,10 +21125,10 @@
       <c r="A14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
@@ -21133,10 +21138,10 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
@@ -21146,10 +21151,10 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
@@ -21159,10 +21164,10 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="19"/>
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
@@ -21172,10 +21177,10 @@
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="20"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="19"/>
       <c r="G18" s="16"/>
       <c r="H18" s="21"/>
@@ -21185,10 +21190,10 @@
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="76"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="19"/>
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
@@ -21198,10 +21203,10 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
@@ -21210,10 +21215,10 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="76"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="19"/>
       <c r="G21" s="16"/>
       <c r="H21" s="21"/>
@@ -21222,10 +21227,10 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="20"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="76"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="19"/>
       <c r="G22" s="16"/>
       <c r="H22" s="21"/>
@@ -21234,10 +21239,10 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="19"/>
       <c r="G23" s="26"/>
       <c r="H23" s="22"/>
@@ -21246,10 +21251,10 @@
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="19"/>
       <c r="G24" s="26"/>
       <c r="H24" s="22"/>
@@ -21258,10 +21263,10 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="19"/>
       <c r="G25" s="26"/>
       <c r="H25" s="22"/>
@@ -21270,10 +21275,10 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="25"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="27"/>
       <c r="G26" s="26"/>
       <c r="H26" s="28"/>
@@ -21282,10 +21287,10 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A27" s="30"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
@@ -21293,40 +21298,40 @@
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:11" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="103" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="97" t="s">
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49" t="s">
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="100" t="s">
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999">
       <c r="A30" s="35" t="s">
@@ -21389,15 +21394,15 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95" t="s">
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="96"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="1:10" ht="16.2">
       <c r="A35" s="41" t="s">
@@ -21406,11 +21411,11 @@
       <c r="B35" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42" t="s">
@@ -21419,11 +21424,11 @@
       <c r="D36" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42" t="s">
@@ -21432,11 +21437,11 @@
       <c r="D37" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
@@ -21445,11 +21450,11 @@
       <c r="D38" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="42" t="s">
@@ -21458,11 +21463,11 @@
       <c r="D39" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="43" t="s">
@@ -21471,22 +21476,33 @@
       <c r="D40" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F35:H40"/>
-    <mergeCell ref="I35:J40"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
@@ -21499,27 +21515,16 @@
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F35:H40"/>
+    <mergeCell ref="I35:J40"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">

--- a/media/system_files/quotation_template.xlsx
+++ b/media/system_files/quotation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3EE612-47B8-423D-9F98-D3C1E82982A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DD05E-FD76-4BC7-9A0E-B447EE4D683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AF5755F-8060-4186-AA0D-C6F9F1F3AB9B}"/>
   </bookViews>
@@ -6512,8 +6512,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
